--- a/工作/20171113-新满意度/新满意度-后台相关.xlsx
+++ b/工作/20171113-新满意度/新满意度-后台相关.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangjunjun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiangying/Documents/我的/git/mac/工作/20171113-新满意度/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="2880" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -286,6 +287,23 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -295,29 +313,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -597,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,37 +612,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="3"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
@@ -650,57 +651,57 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="11" t="s">
+      <c r="N2" s="8"/>
+      <c r="O2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="12"/>
+      <c r="O3" s="14"/>
       <c r="P3" t="s">
         <v>20</v>
       </c>
@@ -732,15 +733,34 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>